--- a/Data/excel/test.xlsx
+++ b/Data/excel/test.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14385" windowHeight="8925"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
-    <sheet name="TestConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="TestThrift" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>

--- a/Data/excel/test.xlsx
+++ b/Data/excel/test.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
-    <sheet name="UserData" sheetId="1" r:id="rId1"/>
-    <sheet name="#TestData" sheetId="2" r:id="rId2"/>
+    <sheet name="#TemplateData" sheetId="2" r:id="rId1"/>
+    <sheet name="UserData" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>变量说明</t>
   </si>
@@ -1130,12 +1130,8 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1208,7 +1204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" s="3" customFormat="1" spans="1:6">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1228,7 +1224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" s="3" customFormat="1" spans="1:6">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1248,7 +1244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" s="3" customFormat="1" spans="1:6">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1268,7 +1264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" s="3" customFormat="1" spans="1:6">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1288,7 +1284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" s="3" customFormat="1" spans="1:6">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1308,7 +1304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" s="3" customFormat="1" spans="1:6">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1328,7 +1324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" s="3" customFormat="1" spans="1:6">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1348,7 +1344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" s="3" customFormat="1" spans="1:6">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1368,7 +1364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" s="3" customFormat="1" spans="1:6">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1388,7 +1384,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" s="3" customFormat="1" spans="1:6">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1408,7 +1404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" s="3" customFormat="1" spans="1:6">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1428,7 +1424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" s="3" customFormat="1" spans="1:6">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1448,7 +1444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" s="3" customFormat="1" spans="1:6">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1468,7 +1464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" s="3" customFormat="1" spans="1:6">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1488,7 +1484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" s="3" customFormat="1" spans="1:6">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1508,7 +1504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" s="3" customFormat="1" spans="1:6">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -1538,14 +1534,407 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="5.125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>18731228223</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>18731228224</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>18731228225</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18731228226</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="3">
+        <v>18731228227</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10005</v>
+      </c>
+      <c r="C9" s="3">
+        <v>18731228228</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10006</v>
+      </c>
+      <c r="C10" s="3">
+        <v>18731228229</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10007</v>
+      </c>
+      <c r="C11" s="3">
+        <v>18731228230</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10008</v>
+      </c>
+      <c r="C12" s="3">
+        <v>18731228231</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10009</v>
+      </c>
+      <c r="C13" s="3">
+        <v>18731228232</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10010</v>
+      </c>
+      <c r="C14" s="3">
+        <v>18731228233</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10011</v>
+      </c>
+      <c r="C15" s="3">
+        <v>18731228234</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10012</v>
+      </c>
+      <c r="C16" s="3">
+        <v>18731228235</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10013</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18731228236</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10014</v>
+      </c>
+      <c r="C18" s="3">
+        <v>18731228237</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10015</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18731228238</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Data/excel/test.xlsx
+++ b/Data/excel/test.xlsx
@@ -4,18 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="29868" windowHeight="13380" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#TemplateData" sheetId="2" r:id="rId1"/>
-    <sheet name="UserData" sheetId="1" r:id="rId2"/>
+    <sheet name="Test" sheetId="3" r:id="rId2"/>
+    <sheet name="User" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
   <si>
     <t>变量说明</t>
   </si>
@@ -116,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -138,34 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -179,14 +165,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,6 +204,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,7 +269,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,49 +317,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,121 +455,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,21 +522,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +555,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,148 +628,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -778,52 +792,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1130,17 +1144,17 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="5.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.87962962962963" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.37962962962963" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.37962962962963" style="3" customWidth="1"/>
+    <col min="5" max="6" width="5.12962962962963" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1537,20 +1551,16 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="5.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.87962962962963" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.37962962962963" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.37962962962963" style="3" customWidth="1"/>
+    <col min="5" max="6" width="5.12962962962963" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1614,6 +1624,415 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>18731228223</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:6">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>18731228224</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:6">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>18731228225</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:6">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18731228226</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:6">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="3">
+        <v>18731228227</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:6">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10005</v>
+      </c>
+      <c r="C9" s="3">
+        <v>18731228228</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:6">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10006</v>
+      </c>
+      <c r="C10" s="3">
+        <v>18731228229</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:6">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10007</v>
+      </c>
+      <c r="C11" s="3">
+        <v>18731228230</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:6">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10008</v>
+      </c>
+      <c r="C12" s="3">
+        <v>18731228231</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:6">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10009</v>
+      </c>
+      <c r="C13" s="3">
+        <v>18731228232</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:6">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10010</v>
+      </c>
+      <c r="C14" s="3">
+        <v>18731228233</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:6">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10011</v>
+      </c>
+      <c r="C15" s="3">
+        <v>18731228234</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:6">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10012</v>
+      </c>
+      <c r="C16" s="3">
+        <v>18731228235</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:6">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10013</v>
+      </c>
+      <c r="C17" s="3">
+        <v>18731228236</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:6">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10014</v>
+      </c>
+      <c r="C18" s="3">
+        <v>18731228237</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:6">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10015</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18731228238</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="8.87962962962963" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.37962962962963" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.37962962962963" style="3" customWidth="1"/>
+    <col min="5" max="6" width="5.12962962962963" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>1</v>

--- a/Data/excel/test.xlsx
+++ b/Data/excel/test.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13380" activeTab="2"/>
+    <workbookView windowHeight="15260" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="#TemplateData" sheetId="2" r:id="rId1"/>
-    <sheet name="Test" sheetId="3" r:id="rId2"/>
-    <sheet name="User" sheetId="1" r:id="rId3"/>
+    <sheet name="#Navigator" sheetId="2" r:id="rId1"/>
+    <sheet name="User" sheetId="1" r:id="rId2"/>
+    <sheet name="Test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,9 +29,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
-  <si>
-    <t>变量说明</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+  <si>
+    <t>表格Id</t>
+  </si>
+  <si>
+    <t>表格名称</t>
+  </si>
+  <si>
+    <t>表格说明</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>玩家信息</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>测试表格</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>数据ID</t>
@@ -49,9 +73,6 @@
     <t>年龄</t>
   </si>
   <si>
-    <t>变量名</t>
-  </si>
-  <si>
     <t>UserId</t>
   </si>
   <si>
@@ -65,9 +86,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>变量类型</t>
   </si>
   <si>
     <t>int</t>
@@ -154,7 +172,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,7 +180,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,12 +661,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,20 +791,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,403 +1178,210 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.87962962962963" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.37962962962963" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6296296296296" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.37962962962963" style="3" customWidth="1"/>
-    <col min="5" max="6" width="5.12962962962963" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.92307692307692" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.08653846153846" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.45192307692308" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.28846153846154" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.0961538461538" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.04807692307692" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="1"/>
+    <row r="2" s="5" customFormat="1"/>
+    <row r="3" s="6" customFormat="1" spans="3:5">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" s="6" customFormat="1" spans="3:5">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="5" s="6" customFormat="1" spans="3:5">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="3">
-        <v>18731228223</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:6">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="3">
-        <v>18731228224</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:6">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>10002</v>
-      </c>
-      <c r="C6" s="3">
-        <v>18731228225</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:6">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>10003</v>
-      </c>
-      <c r="C7" s="3">
-        <v>18731228226</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:6">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>10004</v>
-      </c>
-      <c r="C8" s="3">
-        <v>18731228227</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:6">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10005</v>
-      </c>
-      <c r="C9" s="3">
-        <v>18731228228</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:6">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>10006</v>
-      </c>
-      <c r="C10" s="3">
-        <v>18731228229</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:6">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10007</v>
-      </c>
-      <c r="C11" s="3">
-        <v>18731228230</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:6">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10008</v>
-      </c>
-      <c r="C12" s="3">
-        <v>18731228231</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:6">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10009</v>
-      </c>
-      <c r="C13" s="3">
-        <v>18731228232</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:6">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10010</v>
-      </c>
-      <c r="C14" s="3">
-        <v>18731228233</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:6">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>10011</v>
-      </c>
-      <c r="C15" s="3">
-        <v>18731228234</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:6">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>10012</v>
-      </c>
-      <c r="C16" s="3">
-        <v>18731228235</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:6">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>10013</v>
-      </c>
-      <c r="C17" s="3">
-        <v>18731228236</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:6">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10014</v>
-      </c>
-      <c r="C18" s="3">
-        <v>18731228237</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:6">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10015</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18731228238</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="6" s="7" customFormat="1" spans="1:8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:8">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" s="7" customFormat="1" spans="1:8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:8">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:8">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" s="7" customFormat="1" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" s="7" customFormat="1" spans="1:8">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" s="7" customFormat="1" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" s="7" customFormat="1" spans="1:8">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" s="7" customFormat="1" spans="1:8">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" s="7" customFormat="1" spans="1:8">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" s="7" customFormat="1" spans="1:8">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" location="User!A1" display="User"/>
+    <hyperlink ref="D5" location="Test!A1" display="Test"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1548,404 +1391,457 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.87962962962963" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.37962962962963" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6296296296296" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.37962962962963" style="3" customWidth="1"/>
-    <col min="5" max="6" width="5.12962962962963" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.92307692307692" style="1" customWidth="1"/>
+    <col min="2" max="3" width="6.08653846153846" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1442307692308" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73076923076923" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.04807692307692" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="8:8">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1"/>
+    <row r="3" s="2" customFormat="1" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18731228223</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18731228224</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H7" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D8" s="1">
+        <v>10002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>18731228225</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D9" s="1">
+        <v>10003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>18731228226</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="D10" s="1">
+        <v>10004</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18731228227</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D11" s="1">
+        <v>10005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>18731228228</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D12" s="1">
+        <v>10006</v>
+      </c>
+      <c r="E12" s="1">
+        <v>18731228229</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D13" s="1">
+        <v>10007</v>
+      </c>
+      <c r="E13" s="1">
+        <v>18731228230</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D14" s="1">
+        <v>10008</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18731228231</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D15" s="1">
+        <v>10009</v>
+      </c>
+      <c r="E15" s="1">
+        <v>18731228232</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="D16" s="1">
+        <v>10010</v>
+      </c>
+      <c r="E16" s="1">
+        <v>18731228233</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D17" s="1">
+        <v>10011</v>
+      </c>
+      <c r="E17" s="1">
+        <v>18731228234</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D18" s="1">
+        <v>10012</v>
+      </c>
+      <c r="E18" s="1">
+        <v>18731228235</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D19" s="1">
+        <v>10013</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18731228236</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="3">
-        <v>18731228223</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D20" s="1">
+        <v>10014</v>
+      </c>
+      <c r="E20" s="1">
+        <v>18731228237</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:6">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="3">
-        <v>18731228224</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:6">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>10002</v>
-      </c>
-      <c r="C6" s="3">
-        <v>18731228225</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:6">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>10003</v>
-      </c>
-      <c r="C7" s="3">
-        <v>18731228226</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:6">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>10004</v>
-      </c>
-      <c r="C8" s="3">
-        <v>18731228227</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:6">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10005</v>
-      </c>
-      <c r="C9" s="3">
-        <v>18731228228</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:6">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>10006</v>
-      </c>
-      <c r="C10" s="3">
-        <v>18731228229</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="D21" s="1">
+        <v>10015</v>
+      </c>
+      <c r="E21" s="1">
+        <v>18731228238</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:6">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10007</v>
-      </c>
-      <c r="C11" s="3">
-        <v>18731228230</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:6">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10008</v>
-      </c>
-      <c r="C12" s="3">
-        <v>18731228231</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:6">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10009</v>
-      </c>
-      <c r="C13" s="3">
-        <v>18731228232</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:6">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10010</v>
-      </c>
-      <c r="C14" s="3">
-        <v>18731228233</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:6">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>10011</v>
-      </c>
-      <c r="C15" s="3">
-        <v>18731228234</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:6">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>10012</v>
-      </c>
-      <c r="C16" s="3">
-        <v>18731228235</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:6">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>10013</v>
-      </c>
-      <c r="C17" s="3">
-        <v>18731228236</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:6">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10014</v>
-      </c>
-      <c r="C18" s="3">
-        <v>18731228237</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:6">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10015</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18731228238</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1953,409 +1849,456 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.87962962962963" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.37962962962963" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6296296296296" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.37962962962963" style="3" customWidth="1"/>
-    <col min="5" max="6" width="5.12962962962963" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.92307692307692" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.08653846153846" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6923076923077" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8173076923077" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.04807692307692" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1"/>
+    <row r="2" s="1" customFormat="1" spans="6:6">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18731228223</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18731228224</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H7" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D8" s="1">
+        <v>10002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>18731228225</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D9" s="1">
+        <v>10003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>18731228226</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="D10" s="1">
+        <v>10004</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18731228227</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D11" s="1">
+        <v>10005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>18731228228</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10006</v>
+      </c>
+      <c r="E12" s="1">
+        <v>18731228229</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D13" s="1">
+        <v>10007</v>
+      </c>
+      <c r="E13" s="1">
+        <v>18731228230</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D14" s="1">
+        <v>10008</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18731228231</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D15" s="1">
+        <v>10009</v>
+      </c>
+      <c r="E15" s="1">
+        <v>18731228232</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="D16" s="1">
+        <v>10010</v>
+      </c>
+      <c r="E16" s="1">
+        <v>18731228233</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D17" s="1">
+        <v>10011</v>
+      </c>
+      <c r="E17" s="1">
+        <v>18731228234</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D18" s="1">
+        <v>10012</v>
+      </c>
+      <c r="E18" s="1">
+        <v>18731228235</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D19" s="1">
+        <v>10013</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18731228236</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C4" s="3">
-        <v>18731228223</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D20" s="1">
+        <v>10014</v>
+      </c>
+      <c r="E20" s="1">
+        <v>18731228237</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
         <v>16</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="3">
-        <v>18731228224</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>10002</v>
-      </c>
-      <c r="C6" s="3">
-        <v>18731228225</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>10003</v>
-      </c>
-      <c r="C7" s="3">
-        <v>18731228226</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>10004</v>
-      </c>
-      <c r="C8" s="3">
-        <v>18731228227</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10005</v>
-      </c>
-      <c r="C9" s="3">
-        <v>18731228228</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>10006</v>
-      </c>
-      <c r="C10" s="3">
-        <v>18731228229</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="D21" s="1">
+        <v>10015</v>
+      </c>
+      <c r="E21" s="1">
+        <v>18731228238</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10007</v>
-      </c>
-      <c r="C11" s="3">
-        <v>18731228230</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10008</v>
-      </c>
-      <c r="C12" s="3">
-        <v>18731228231</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10009</v>
-      </c>
-      <c r="C13" s="3">
-        <v>18731228232</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10010</v>
-      </c>
-      <c r="C14" s="3">
-        <v>18731228233</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>10011</v>
-      </c>
-      <c r="C15" s="3">
-        <v>18731228234</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>10012</v>
-      </c>
-      <c r="C16" s="3">
-        <v>18731228235</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>10013</v>
-      </c>
-      <c r="C17" s="3">
-        <v>18731228236</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10014</v>
-      </c>
-      <c r="C18" s="3">
-        <v>18731228237</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>10015</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18731228238</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Data/excel/test.xlsx
+++ b/Data/excel/test.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15260" activeTab="2"/>
+    <workbookView windowHeight="15260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#Navigator" sheetId="2" r:id="rId1"/>
     <sheet name="User" sheetId="1" r:id="rId2"/>
-    <sheet name="Test" sheetId="3" r:id="rId3"/>
+    <sheet name="Admin" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
   <si>
     <t>表格Id</t>
   </si>
@@ -73,6 +73,9 @@
     <t>年龄</t>
   </si>
   <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>UserId</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>Age</t>
   </si>
   <si>
+    <t>Test1</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -97,7 +103,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>Vector3[]</t>
+  </si>
+  <si>
     <t>Josh</t>
+  </si>
+  <si>
+    <t>1,1,1|2,2,2</t>
   </si>
   <si>
     <t>Josh1</t>
@@ -1391,17 +1403,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="5.92307692307692" style="1" customWidth="1"/>
     <col min="2" max="3" width="6.08653846153846" style="1" customWidth="1"/>
@@ -1410,16 +1422,20 @@
     <col min="6" max="6" width="6.73076923076923" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.04807692307692" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="12.0192307692308" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="8:8">
+    <row r="1" s="1" customFormat="1" spans="8:9">
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1"/>
-    <row r="3" s="2" customFormat="1" spans="1:8">
+    <row r="3" s="2" customFormat="1" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
@@ -1440,52 +1456,61 @@
       <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1">
@@ -1498,7 +1523,7 @@
         <v>18731228223</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1506,8 +1531,11 @@
       <c r="H6" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:8">
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
@@ -1520,7 +1548,7 @@
         <v>18731228224</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -1528,8 +1556,11 @@
       <c r="H7" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:8">
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -1542,7 +1573,7 @@
         <v>18731228225</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1550,8 +1581,11 @@
       <c r="H8" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:8">
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -1564,7 +1598,7 @@
         <v>18731228226</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1572,8 +1606,11 @@
       <c r="H9" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:8">
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -1586,7 +1623,7 @@
         <v>18731228227</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1594,8 +1631,11 @@
       <c r="H10" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:8">
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -1608,7 +1648,7 @@
         <v>18731228228</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1616,8 +1656,11 @@
       <c r="H11" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:8">
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -1630,7 +1673,7 @@
         <v>18731228229</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1638,8 +1681,11 @@
       <c r="H12" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:8">
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -1652,7 +1698,7 @@
         <v>18731228230</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1660,8 +1706,11 @@
       <c r="H13" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:8">
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -1674,7 +1723,7 @@
         <v>18731228231</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1682,8 +1731,11 @@
       <c r="H14" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:8">
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -1696,7 +1748,7 @@
         <v>18731228232</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1704,8 +1756,11 @@
       <c r="H15" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:8">
+      <c r="I15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1720,7 +1775,7 @@
         <v>18731228233</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1728,8 +1783,11 @@
       <c r="H16" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:8">
+      <c r="I16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
@@ -1742,7 +1800,7 @@
         <v>18731228234</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1750,8 +1808,11 @@
       <c r="H17" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:8">
+      <c r="I17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:9">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
@@ -1764,7 +1825,7 @@
         <v>18731228235</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -1772,8 +1833,11 @@
       <c r="H18" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:8">
+      <c r="I18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
@@ -1786,7 +1850,7 @@
         <v>18731228236</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1794,8 +1858,11 @@
       <c r="H19" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:8">
+      <c r="I19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
@@ -1808,7 +1875,7 @@
         <v>18731228237</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -1816,8 +1883,11 @@
       <c r="H20" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:8">
+      <c r="I20" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
@@ -1830,13 +1900,16 @@
         <v>18731228238</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1">
         <v>46</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1851,12 +1924,12 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1906,41 +1979,41 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:8">
@@ -1956,7 +2029,7 @@
         <v>18731228223</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1978,7 +2051,7 @@
         <v>18731228224</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -2000,7 +2073,7 @@
         <v>18731228225</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -2022,7 +2095,7 @@
         <v>18731228226</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -2044,7 +2117,7 @@
         <v>18731228227</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -2066,7 +2139,7 @@
         <v>18731228228</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -2090,7 +2163,7 @@
         <v>18731228229</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -2112,7 +2185,7 @@
         <v>18731228230</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -2134,7 +2207,7 @@
         <v>18731228231</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2156,7 +2229,7 @@
         <v>18731228232</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2178,7 +2251,7 @@
         <v>18731228233</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -2200,7 +2273,7 @@
         <v>18731228234</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2222,7 +2295,7 @@
         <v>18731228235</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -2244,7 +2317,7 @@
         <v>18731228236</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -2266,7 +2339,7 @@
         <v>18731228237</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -2288,7 +2361,7 @@
         <v>18731228238</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>

--- a/Data/excel/test.xlsx
+++ b/Data/excel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15260" activeTab="1"/>
+    <workbookView windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="#Navigator" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>玩家信息</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Admin</t>
   </si>
   <si>
     <t>测试表格</t>
@@ -1192,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1392,7 +1392,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" location="User!A1" display="User"/>
-    <hyperlink ref="D5" location="Test!A1" display="Test"/>
+    <hyperlink ref="D5" location="Admin!A1" display="Admin"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1405,7 +1405,7 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1929,7 +1929,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>

--- a/Data/excel/test.xlsx
+++ b/Data/excel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15260"/>
+    <workbookView windowHeight="15260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#Navigator" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>表格Id</t>
   </si>
@@ -1192,7 +1192,7 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1405,12 +1405,12 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1426,11 +1426,8 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="8:9">
+    <row r="1" s="1" customFormat="1" spans="8:8">
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
